--- a/2. 요구사항 명세서/요구사항 명세서.xlsx
+++ b/2. 요구사항 명세서/요구사항 명세서.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\devSpace\SpringProjects\ChatProgram\ChatProgram\2. 요구사항 명세서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF7897EF-E98A-452E-9D74-DACE444D5394}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84D63C5B-9F8C-4384-8ABC-1022933C63E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -612,7 +612,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -623,19 +623,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -647,18 +638,75 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -666,70 +714,13 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1019,8 +1010,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1039,12 +1030,12 @@
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
       <c r="C2" s="3"/>
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="E2" s="41"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="39"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="1"/>
       <c r="H2" s="3"/>
       <c r="I2" s="1"/>
     </row>
@@ -1053,663 +1044,674 @@
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
       <c r="G3" s="1"/>
       <c r="H3" s="3"/>
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="9" t="s">
+      <c r="F4" s="36"/>
+      <c r="G4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="6" t="s">
         <v>5</v>
       </c>
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="12"/>
-      <c r="G5" s="37">
+      <c r="F5" s="25"/>
+      <c r="G5" s="22">
         <v>45471</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="7" t="s">
         <v>7</v>
       </c>
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="12"/>
-      <c r="G6" s="37">
+      <c r="F6" s="25"/>
+      <c r="G6" s="22">
         <v>45471</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="H6" s="7" t="s">
         <v>7</v>
       </c>
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="14"/>
-      <c r="G7" s="37">
+      <c r="F7" s="31"/>
+      <c r="G7" s="22">
         <v>45471</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="H7" s="7" t="s">
         <v>7</v>
       </c>
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="15"/>
-      <c r="G8" s="37">
+      <c r="F8" s="24"/>
+      <c r="G8" s="22">
         <v>45471</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="H8" s="7" t="s">
         <v>7</v>
       </c>
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="F9" s="17"/>
-      <c r="G9" s="37">
+      <c r="F9" s="33"/>
+      <c r="G9" s="22">
         <v>45471</v>
       </c>
-      <c r="H9" s="10" t="s">
+      <c r="H9" s="7" t="s">
         <v>7</v>
       </c>
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="F10" s="17"/>
-      <c r="G10" s="37">
+      <c r="F10" s="33"/>
+      <c r="G10" s="22">
         <v>45471</v>
       </c>
-      <c r="H10" s="10" t="s">
+      <c r="H10" s="7" t="s">
         <v>7</v>
       </c>
       <c r="I10" s="1"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="F11" s="14"/>
-      <c r="G11" s="37">
+      <c r="F11" s="31"/>
+      <c r="G11" s="22">
         <v>45471</v>
       </c>
-      <c r="H11" s="10" t="s">
+      <c r="H11" s="7" t="s">
         <v>7</v>
       </c>
       <c r="I11" s="1"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="E12" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="F12" s="17"/>
-      <c r="G12" s="37">
+      <c r="F12" s="33"/>
+      <c r="G12" s="22">
         <v>45471</v>
       </c>
-      <c r="H12" s="10" t="s">
+      <c r="H12" s="7" t="s">
         <v>7</v>
       </c>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="18"/>
-      <c r="B13" s="10" t="s">
+    <row r="13" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="9"/>
+      <c r="B13" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="E13" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="F13" s="12"/>
-      <c r="G13" s="37">
+      <c r="F13" s="25"/>
+      <c r="G13" s="22">
         <v>45472</v>
       </c>
-      <c r="H13" s="10" t="s">
+      <c r="H13" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I13" s="18"/>
-    </row>
-    <row r="14" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="18"/>
-      <c r="B14" s="10" t="s">
+      <c r="I13" s="9"/>
+    </row>
+    <row r="14" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="9"/>
+      <c r="B14" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="F14" s="12"/>
-      <c r="G14" s="37">
+      <c r="F14" s="25"/>
+      <c r="G14" s="22">
         <v>45472</v>
       </c>
-      <c r="H14" s="10" t="s">
+      <c r="H14" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I14" s="18"/>
-    </row>
-    <row r="15" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="18"/>
-      <c r="B15" s="10" t="s">
+      <c r="I14" s="9"/>
+    </row>
+    <row r="15" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="9"/>
+      <c r="B15" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="E15" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="F15" s="12"/>
-      <c r="G15" s="37">
+      <c r="F15" s="25"/>
+      <c r="G15" s="22">
         <v>45472</v>
       </c>
-      <c r="H15" s="10" t="s">
+      <c r="H15" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I15" s="18"/>
-    </row>
-    <row r="16" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="18"/>
-      <c r="B16" s="10" t="s">
+      <c r="I15" s="9"/>
+    </row>
+    <row r="16" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="9"/>
+      <c r="B16" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E16" s="12" t="s">
+      <c r="E16" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="F16" s="12"/>
-      <c r="G16" s="37">
+      <c r="F16" s="25"/>
+      <c r="G16" s="22">
         <v>45472</v>
       </c>
-      <c r="H16" s="10" t="s">
+      <c r="H16" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I16" s="18"/>
-    </row>
-    <row r="17" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="18"/>
-      <c r="B17" s="10" t="s">
+      <c r="I16" s="9"/>
+    </row>
+    <row r="17" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="9"/>
+      <c r="B17" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="E17" s="12" t="s">
+      <c r="E17" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="F17" s="12"/>
-      <c r="G17" s="37">
+      <c r="F17" s="25"/>
+      <c r="G17" s="22">
         <v>45472</v>
       </c>
-      <c r="H17" s="10" t="s">
+      <c r="H17" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I17" s="18"/>
-    </row>
-    <row r="18" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="18"/>
-      <c r="B18" s="10" t="s">
+      <c r="I17" s="9"/>
+    </row>
+    <row r="18" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="9"/>
+      <c r="B18" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="E18" s="12" t="s">
+      <c r="E18" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="F18" s="12"/>
-      <c r="G18" s="37">
+      <c r="F18" s="25"/>
+      <c r="G18" s="22">
         <v>45472</v>
       </c>
-      <c r="H18" s="10" t="s">
+      <c r="H18" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I18" s="18"/>
-    </row>
-    <row r="19" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="18"/>
-      <c r="B19" s="10" t="s">
+      <c r="I18" s="9"/>
+    </row>
+    <row r="19" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="9"/>
+      <c r="B19" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E19" s="12" t="s">
+      <c r="E19" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="F19" s="12"/>
-      <c r="G19" s="37">
+      <c r="F19" s="25"/>
+      <c r="G19" s="22">
         <v>45475</v>
       </c>
-      <c r="H19" s="10" t="s">
+      <c r="H19" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I19" s="18"/>
-    </row>
-    <row r="20" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="18"/>
-      <c r="B20" s="10" t="s">
+      <c r="I19" s="9"/>
+    </row>
+    <row r="20" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="9"/>
+      <c r="B20" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="E20" s="12" t="s">
+      <c r="E20" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="F20" s="12"/>
-      <c r="G20" s="37">
+      <c r="F20" s="25"/>
+      <c r="G20" s="22">
         <v>45475</v>
       </c>
-      <c r="H20" s="10" t="s">
+      <c r="H20" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I20" s="18"/>
-    </row>
-    <row r="21" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="18"/>
-      <c r="B21" s="34"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="35"/>
-      <c r="I21" s="18"/>
-    </row>
-    <row r="22" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="18"/>
-      <c r="B22" s="34"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="35"/>
-      <c r="I22" s="18"/>
-    </row>
-    <row r="23" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="18"/>
-      <c r="B23" s="34"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="35"/>
-      <c r="I23" s="18"/>
-    </row>
-    <row r="24" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="18"/>
-      <c r="B24" s="34"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="35"/>
-      <c r="I24" s="18"/>
-    </row>
-    <row r="25" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="18"/>
-      <c r="B25" s="34"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="35"/>
-      <c r="I25" s="18"/>
-    </row>
-    <row r="26" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="18"/>
-      <c r="B26" s="34"/>
-      <c r="C26" s="34"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="35"/>
-      <c r="I26" s="18"/>
+      <c r="I20" s="9"/>
+    </row>
+    <row r="21" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="9"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+    </row>
+    <row r="22" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="9"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+    </row>
+    <row r="23" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="9"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+    </row>
+    <row r="24" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="9"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+    </row>
+    <row r="25" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="9"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+    </row>
+    <row r="26" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="9"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
     </row>
     <row r="27" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
       <c r="G27" s="1"/>
       <c r="H27" s="3"/>
       <c r="I27" s="1"/>
     </row>
     <row r="28" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1"/>
-      <c r="B28" s="19" t="s">
+      <c r="B28" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="20" t="s">
+      <c r="C28" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D28" s="20" t="s">
+      <c r="D28" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E28" s="21" t="s">
+      <c r="E28" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="F28" s="18"/>
+      <c r="F28" s="9"/>
       <c r="G28" s="1"/>
       <c r="H28" s="3"/>
       <c r="I28" s="1"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
-      <c r="B29" s="22" t="s">
+      <c r="B29" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C29" s="23" t="s">
+      <c r="C29" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="24" t="s">
+      <c r="D29" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="E29" s="25" t="s">
+      <c r="E29" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="F29" s="18"/>
+      <c r="F29" s="9"/>
       <c r="G29" s="1"/>
       <c r="H29" s="3"/>
       <c r="I29" s="1"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
-      <c r="B30" s="26"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="11"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="8"/>
       <c r="E30" s="27"/>
-      <c r="F30" s="18"/>
+      <c r="F30" s="9"/>
       <c r="G30" s="1"/>
       <c r="H30" s="3"/>
       <c r="I30" s="1"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
-      <c r="B31" s="26"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="11"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="8"/>
       <c r="E31" s="27"/>
-      <c r="F31" s="18"/>
+      <c r="F31" s="9"/>
       <c r="G31" s="1"/>
       <c r="H31" s="3"/>
       <c r="I31" s="1"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
-      <c r="B32" s="26"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="11"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="8"/>
       <c r="E32" s="27"/>
-      <c r="F32" s="18"/>
+      <c r="F32" s="9"/>
       <c r="G32" s="1"/>
       <c r="H32" s="3"/>
       <c r="I32" s="1"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
-      <c r="B33" s="26"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="11"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="8"/>
       <c r="E33" s="27"/>
-      <c r="F33" s="18"/>
+      <c r="F33" s="9"/>
       <c r="G33" s="1"/>
       <c r="H33" s="3"/>
       <c r="I33" s="1"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
-      <c r="B34" s="26"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="11"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="8"/>
       <c r="E34" s="27"/>
-      <c r="F34" s="28"/>
+      <c r="F34" s="17"/>
       <c r="G34" s="1"/>
       <c r="H34" s="3"/>
       <c r="I34" s="1"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
-      <c r="B35" s="26"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="11"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="8"/>
       <c r="E35" s="27"/>
-      <c r="F35" s="18"/>
+      <c r="F35" s="9"/>
       <c r="G35" s="1"/>
       <c r="H35" s="3"/>
       <c r="I35" s="1"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
-      <c r="B36" s="26"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="11"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="8"/>
       <c r="E36" s="27"/>
-      <c r="F36" s="18"/>
+      <c r="F36" s="9"/>
       <c r="G36" s="1"/>
       <c r="H36" s="3"/>
       <c r="I36" s="1"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
-      <c r="B37" s="26"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="11"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="8"/>
       <c r="E37" s="27"/>
-      <c r="F37" s="18"/>
+      <c r="F37" s="9"/>
       <c r="G37" s="1"/>
       <c r="H37" s="3"/>
       <c r="I37" s="1"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
-      <c r="B38" s="26"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="11"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="8"/>
       <c r="E38" s="27"/>
-      <c r="F38" s="28"/>
+      <c r="F38" s="17"/>
       <c r="G38" s="1"/>
       <c r="H38" s="3"/>
       <c r="I38" s="1"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
-      <c r="B39" s="26"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="11"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="8"/>
       <c r="E39" s="27"/>
-      <c r="F39" s="28"/>
+      <c r="F39" s="17"/>
       <c r="G39" s="1"/>
       <c r="H39" s="3"/>
       <c r="I39" s="1"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
-      <c r="B40" s="26"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="11"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="8"/>
       <c r="E40" s="27"/>
-      <c r="F40" s="18"/>
+      <c r="F40" s="9"/>
       <c r="G40" s="1"/>
       <c r="H40" s="3"/>
       <c r="I40" s="1"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
-      <c r="B41" s="26"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="11"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="8"/>
       <c r="E41" s="27"/>
-      <c r="F41" s="18"/>
+      <c r="F41" s="9"/>
       <c r="G41" s="1"/>
       <c r="H41" s="3"/>
       <c r="I41" s="1"/>
     </row>
     <row r="42" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="1"/>
-      <c r="B42" s="29"/>
-      <c r="C42" s="30"/>
-      <c r="D42" s="31"/>
-      <c r="E42" s="32"/>
-      <c r="F42" s="18"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="28"/>
+      <c r="F42" s="9"/>
       <c r="G42" s="1"/>
       <c r="H42" s="3"/>
       <c r="I42" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="E29:E42"/>
     <mergeCell ref="E14:F14"/>
@@ -1720,17 +1722,6 @@
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="D2:E2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
